--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1IlQLiYaXmZgqwVCZ1k2oNl1fpvmC_8q-/Org Psych Research Project/data analysis/AVI_attraction_Rproject/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB810B-B003-9246-8961-F101E643AA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C27E36E-49D6-6F4F-A790-4F2545B134DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26720" yWindow="500" windowWidth="24460" windowHeight="26680" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26720" yWindow="500" windowWidth="24460" windowHeight="26680" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphas" sheetId="1" r:id="rId1"/>
@@ -754,6 +754,27 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -769,24 +790,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -801,9 +804,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,43 +2429,43 @@
   <sheetData>
     <row r="2" spans="6:18" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="6:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="6:18" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="6:18" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F5" s="4"/>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45" t="s">
+      <c r="L5" s="39"/>
+      <c r="M5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="39"/>
+      <c r="O5" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="45"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="6:18" x14ac:dyDescent="0.2">
       <c r="F6" s="5" t="s">
@@ -2623,30 +2623,30 @@
       <c r="F11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="47" t="s">
+      <c r="G11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47" t="s">
+      <c r="H11" s="40"/>
+      <c r="I11" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47" t="s">
+      <c r="J11" s="40"/>
+      <c r="K11" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47" t="s">
+      <c r="L11" s="40"/>
+      <c r="M11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47" t="s">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47" t="s">
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="47"/>
+      <c r="R11" s="40"/>
     </row>
     <row r="12" spans="6:18" ht="7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G12" s="10"/>
@@ -2750,12 +2750,12 @@
       <c r="R18" s="10"/>
     </row>
     <row r="19" spans="2:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -2783,11 +2783,11 @@
     </row>
     <row r="21" spans="2:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2800,18 +2800,18 @@
     </row>
     <row r="22" spans="2:18" ht="8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
@@ -2861,7 +2861,7 @@
       <c r="D25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="44" t="s">
         <v>106</v>
       </c>
       <c r="F25" s="17"/>
@@ -2884,7 +2884,7 @@
       <c r="D26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -2905,7 +2905,7 @@
       <c r="D27" s="20">
         <v>0.21</v>
       </c>
-      <c r="E27" s="37" t="s">
+      <c r="E27" s="44" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="19"/>
@@ -2928,7 +2928,7 @@
       <c r="D28" s="20">
         <v>0.06</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -2949,7 +2949,7 @@
       <c r="D29" s="20">
         <v>0.17</v>
       </c>
-      <c r="E29" s="37" t="s">
+      <c r="E29" s="44" t="s">
         <v>114</v>
       </c>
       <c r="F29" s="21"/>
@@ -2972,7 +2972,7 @@
       <c r="D30" s="20">
         <v>0.05</v>
       </c>
-      <c r="E30" s="37"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -2993,7 +2993,7 @@
       <c r="D31" s="20">
         <v>0.13</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="44" t="s">
         <v>117</v>
       </c>
       <c r="F31" s="21"/>
@@ -3016,7 +3016,7 @@
       <c r="D32" s="20">
         <v>0.04</v>
       </c>
-      <c r="E32" s="37"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
@@ -3037,7 +3037,7 @@
       <c r="D33" s="22">
         <v>0.22</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E33" s="44" t="s">
         <v>120</v>
       </c>
       <c r="F33" s="21"/>
@@ -3060,16 +3060,16 @@
       <c r="D34" s="25">
         <v>0.06</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="48"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
     </row>
     <row r="35" spans="2:19" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
@@ -3078,7 +3078,7 @@
       <c r="F35" s="15"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="42"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="19"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
@@ -3094,7 +3094,7 @@
       <c r="F36" s="15"/>
       <c r="G36" s="21"/>
       <c r="H36" s="21"/>
-      <c r="I36" s="42"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
       <c r="L36" s="17"/>
@@ -3107,9 +3107,9 @@
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -3140,6 +3140,28 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="F3:L3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
@@ -3149,28 +3171,6 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="F3:L3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3181,8 +3181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE3BB7B-EDC6-C94D-939B-F3B467053C00}">
   <dimension ref="B4:M59"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3198,15 +3198,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -3215,19 +3215,19 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="50" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3235,11 +3235,11 @@
       <c r="B7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="27" t="s">
         <v>77</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="F9" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G9" s="37" t="s">
         <v>136</v>
       </c>
       <c r="H9" s="32" t="s">
@@ -3373,78 +3373,78 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
     </row>
     <row r="39" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
     </row>
     <row r="40" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
     </row>
     <row r="42" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="29"/>
@@ -10327,7 +10327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
